--- a/开局.xlsx
+++ b/开局.xlsx
@@ -795,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,9 +812,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1222,12 +1219,12 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <f>SUM(4500,X2,400)</f>
-        <v>4900</v>
+        <f>SUM(4500,X2,500)</f>
+        <v>5000</v>
       </c>
       <c r="C2">
-        <f>SUM(500,X2,4500)</f>
-        <v>5000</v>
+        <f>SUM(600,X2,4500)</f>
+        <v>5100</v>
       </c>
       <c r="D2">
         <f>SUM(-400,X2,4500)</f>
@@ -1294,16 +1291,16 @@
         <v>4800</v>
       </c>
       <c r="T2">
-        <f>SUM(4500,-400,X2)</f>
-        <v>4100</v>
+        <f>SUM(4500,-200,X2)</f>
+        <v>4300</v>
       </c>
       <c r="U2">
-        <f>SUM(4500,200,X2)</f>
-        <v>4700</v>
+        <f>SUM(4500,400,X2)</f>
+        <v>4900</v>
       </c>
       <c r="V2">
-        <f>SUM(4500,-500,X2)</f>
-        <v>4000</v>
+        <f>SUM(4500,-300,X2)</f>
+        <v>4200</v>
       </c>
       <c r="X2" s="2">
         <v>0</v>
@@ -1314,91 +1311,91 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">SUM(4500,X3,400)</f>
-        <v>5100</v>
+        <f t="shared" ref="B3:B18" si="0">SUM(4500,X3,500)</f>
+        <v>5400</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C18" si="1">SUM(500,X3,4500)</f>
-        <v>5200</v>
+        <f t="shared" ref="C3:C18" si="1">SUM(600,X3,4500)</f>
+        <v>5500</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D18" si="2">SUM(-400,X3,4500)</f>
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E18" si="3">SUM(4500,X3,0)</f>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F18" si="4">SUM(4500,100,X3)</f>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G18" si="5">SUM(4500,200,X3)</f>
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H18" si="6">SUM(4500,-200,X3)</f>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I18" si="7">SUM(4500,-500,X3)</f>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J18" si="8">SUM(4500,-200,X3)</f>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K18" si="9">SUM(4500,200,X3)</f>
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L18" si="10">SUM(4500,-500,X3)</f>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M18" si="11">SUM(4500,0,X3)</f>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N18" si="12">SUM(4500,700,X3)</f>
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O18" si="13">SUM(4500,0,X3)</f>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P18" si="14">SUM(4500,100,X3)</f>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q18" si="15">SUM(4500,-300,X3)</f>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R18" si="16">SUM(4500,200,X3)</f>
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S18" si="17">SUM(4500,300,X3)</f>
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T18" si="18">SUM(4500,-400,X3)</f>
-        <v>4300</v>
+        <f t="shared" ref="T3:T18" si="18">SUM(4500,-200,X3)</f>
+        <v>4700</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U18" si="19">SUM(4500,200,X3)</f>
-        <v>4900</v>
+        <f t="shared" ref="U3:U18" si="19">SUM(4500,400,X3)</f>
+        <v>5300</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V18" si="20">SUM(4500,-500,X3)</f>
-        <v>4200</v>
+        <f t="shared" ref="V3:V18" si="20">SUM(4500,-300,X3)</f>
+        <v>4600</v>
       </c>
       <c r="X3" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1407,11 +1404,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
@@ -1479,15 +1476,15 @@
       </c>
       <c r="T4">
         <f t="shared" si="18"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="U4">
         <f t="shared" si="19"/>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="V4">
         <f t="shared" si="20"/>
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X4" s="2">
         <v>100</v>
@@ -1499,11 +1496,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
@@ -1571,15 +1568,15 @@
       </c>
       <c r="T5">
         <f t="shared" si="18"/>
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="U5">
         <f t="shared" si="19"/>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="V5">
         <f t="shared" si="20"/>
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="X5" s="2">
         <v>-200</v>
@@ -1591,11 +1588,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
@@ -1638,7 +1635,7 @@
         <v>5000</v>
       </c>
       <c r="N6" s="3">
-        <f>SUM(4500,700,X6)</f>
+        <f t="shared" si="12"/>
         <v>5700</v>
       </c>
       <c r="O6">
@@ -1663,15 +1660,15 @@
       </c>
       <c r="T6">
         <f t="shared" si="18"/>
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="U6">
         <f t="shared" si="19"/>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="V6">
         <f t="shared" si="20"/>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="X6" s="2">
         <v>500</v>
@@ -1683,75 +1680,75 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K7">
         <f t="shared" si="9"/>
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="L7">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="M7">
         <f t="shared" si="11"/>
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="N7">
         <f t="shared" si="12"/>
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="O7">
         <f t="shared" si="13"/>
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="P7">
         <f t="shared" si="14"/>
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="Q7">
         <f t="shared" si="15"/>
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="R7">
         <f t="shared" si="16"/>
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="S7">
         <f t="shared" si="17"/>
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="T7">
         <f t="shared" si="18"/>
@@ -1766,7 +1763,7 @@
         <v>4000</v>
       </c>
       <c r="X7" s="2">
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1775,11 +1772,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
@@ -1847,15 +1844,15 @@
       </c>
       <c r="T8">
         <f t="shared" si="18"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="U8">
         <f t="shared" si="19"/>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="V8">
         <f t="shared" si="20"/>
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X8" s="2">
         <v>100</v>
@@ -1867,11 +1864,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
@@ -1939,15 +1936,15 @@
       </c>
       <c r="T9">
         <f t="shared" si="18"/>
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="U9">
         <f t="shared" si="19"/>
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="V9">
         <f t="shared" si="20"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X9" s="2">
         <v>200</v>
@@ -1959,11 +1956,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
@@ -2031,15 +2028,15 @@
       </c>
       <c r="T10">
         <f t="shared" si="18"/>
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="U10">
         <f t="shared" si="19"/>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="V10">
         <f t="shared" si="20"/>
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -2051,11 +2048,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
@@ -2123,15 +2120,15 @@
       </c>
       <c r="T11">
         <f t="shared" si="18"/>
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="U11">
         <f t="shared" si="19"/>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="V11">
         <f t="shared" si="20"/>
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2143,11 +2140,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
@@ -2215,15 +2212,15 @@
       </c>
       <c r="T12">
         <f t="shared" si="18"/>
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="U12">
         <f t="shared" si="19"/>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="V12">
         <f t="shared" si="20"/>
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="X12" s="2">
         <v>-300</v>
@@ -2235,11 +2232,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
@@ -2307,15 +2304,15 @@
       </c>
       <c r="T13">
         <f t="shared" si="18"/>
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="U13">
         <f t="shared" si="19"/>
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="V13">
         <f t="shared" si="20"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X13" s="2">
         <v>200</v>
@@ -2327,11 +2324,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -2399,15 +2396,15 @@
       </c>
       <c r="T14">
         <f t="shared" si="18"/>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="U14">
         <f t="shared" si="19"/>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="V14">
         <f t="shared" si="20"/>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="X14" s="2">
         <v>400</v>
@@ -2419,11 +2416,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -2491,15 +2488,15 @@
       </c>
       <c r="T15">
         <f t="shared" si="18"/>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="U15">
         <f t="shared" si="19"/>
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="V15">
         <f t="shared" si="20"/>
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="X15" s="2">
         <v>300</v>
@@ -2511,11 +2508,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -2583,15 +2580,15 @@
       </c>
       <c r="T16">
         <f t="shared" si="18"/>
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="U16">
         <f t="shared" si="19"/>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="V16">
         <f t="shared" si="20"/>
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="X16" s="2">
         <v>-200</v>
@@ -2603,11 +2600,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -2675,15 +2672,15 @@
       </c>
       <c r="T17">
         <f t="shared" si="18"/>
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="U17">
         <f t="shared" si="19"/>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="V17">
         <f t="shared" si="20"/>
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -2703,95 +2700,95 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K18">
         <f t="shared" si="9"/>
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="10"/>
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M18">
         <f t="shared" si="11"/>
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="N18">
         <f t="shared" si="12"/>
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="O18">
         <f t="shared" si="13"/>
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="P18">
         <f t="shared" si="14"/>
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="Q18">
         <f t="shared" si="15"/>
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="R18">
         <f t="shared" si="16"/>
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="S18">
         <f t="shared" si="17"/>
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="T18">
         <f t="shared" si="18"/>
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="U18">
         <f t="shared" si="19"/>
-        <v>4300</v>
-      </c>
-      <c r="V18" s="4">
+        <v>4400</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="20"/>
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="X18" s="2">
-        <v>-400</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="1">
         <f>SUM(A1,W20,X19)</f>
-        <v>4548.17927170868</v>
+        <v>4580.39215686274</v>
       </c>
       <c r="X19" s="5">
         <f>AVERAGE(X2:X18)</f>
-        <v>52.9411764705882</v>
+        <v>47.0588235294118</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2799,10 +2796,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C20" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D20" s="2">
         <v>-400</v>
@@ -2853,17 +2850,17 @@
         <v>300</v>
       </c>
       <c r="T20" s="2">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="U20" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V20" s="2">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="W20">
         <f>AVERAGE(B20:V20)</f>
-        <v>-4.76190476190476</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="30" spans="15:15">

--- a/开局.xlsx
+++ b/开局.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Mechabellum\mechabellum_statistic_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82FF76E-3F5F-495B-AC51-43D67BF4EF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,14 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,151 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,204 +205,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -547,251 +224,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -805,71 +240,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1119,28 +510,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:X30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="20" max="22" width="11.0909090909091" customWidth="1"/>
+    <col min="20" max="22" width="11.08984375" customWidth="1"/>
     <col min="23" max="23" width="14"/>
-    <col min="24" max="24" width="12.8181818181818"/>
+    <col min="24" max="24" width="12.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>4500</v>
       </c>
@@ -1214,1584 +605,1228 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <f>SUM(4500,X2,500)</f>
-        <v>5000</v>
+        <f t="array" ref="B2:V18">SUM(A1,INDEX(X:X,ROW()),INDEX(A20:V20,COLUMN()))</f>
+        <v>5100</v>
       </c>
       <c r="C2">
-        <f>SUM(600,X2,4500)</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="D2">
-        <f>SUM(-400,X2,4500)</f>
+        <v>4200</v>
+      </c>
+      <c r="E2">
+        <v>4600</v>
+      </c>
+      <c r="F2">
+        <v>4700</v>
+      </c>
+      <c r="G2">
+        <v>4800</v>
+      </c>
+      <c r="H2">
+        <v>4400</v>
+      </c>
+      <c r="I2">
         <v>4100</v>
       </c>
-      <c r="E2">
-        <f>SUM(4500,X2,0)</f>
-        <v>4500</v>
-      </c>
-      <c r="F2">
-        <f>SUM(4500,100,X2)</f>
-        <v>4600</v>
-      </c>
-      <c r="G2">
-        <f>SUM(4500,200,X2)</f>
-        <v>4700</v>
-      </c>
-      <c r="H2">
-        <f>SUM(4500,-200,X2)</f>
-        <v>4300</v>
-      </c>
-      <c r="I2">
-        <f>SUM(4500,-500,X2)</f>
-        <v>4000</v>
-      </c>
       <c r="J2">
-        <f>SUM(4500,-200,X2)</f>
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K2">
-        <f>SUM(4500,200,X2)</f>
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="L2">
-        <f>SUM(4500,-500,X2)</f>
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="M2">
-        <f>SUM(4500,0,X2)</f>
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="N2">
-        <f>SUM(4500,700,X2)</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="O2">
-        <f>SUM(4500,0,X2)</f>
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="P2">
-        <f>SUM(4500,100,X2)</f>
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="Q2">
-        <f>SUM(4500,-300,X2)</f>
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="R2">
-        <f>SUM(4500,200,X2)</f>
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="S2">
-        <f>SUM(4500,300,X2)</f>
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="T2">
-        <f>SUM(4500,-200,X2)</f>
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="U2">
-        <f>SUM(4500,400,X2)</f>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="V2">
-        <f>SUM(4500,-300,X2)</f>
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="X2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">SUM(4500,X3,500)</f>
+        <v>5500</v>
+      </c>
+      <c r="C3">
+        <v>5600</v>
+      </c>
+      <c r="D3">
+        <v>4600</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <v>5100</v>
+      </c>
+      <c r="G3">
+        <v>5200</v>
+      </c>
+      <c r="H3">
+        <v>4800</v>
+      </c>
+      <c r="I3">
+        <v>4500</v>
+      </c>
+      <c r="J3">
+        <v>4800</v>
+      </c>
+      <c r="K3">
+        <v>5200</v>
+      </c>
+      <c r="L3">
+        <v>4500</v>
+      </c>
+      <c r="M3">
+        <v>5000</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O3">
+        <v>5000</v>
+      </c>
+      <c r="P3">
+        <v>5100</v>
+      </c>
+      <c r="Q3">
+        <v>4700</v>
+      </c>
+      <c r="R3">
+        <v>5200</v>
+      </c>
+      <c r="S3">
+        <v>5300</v>
+      </c>
+      <c r="T3">
+        <v>4800</v>
+      </c>
+      <c r="U3">
         <v>5400</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C18" si="1">SUM(600,X3,4500)</f>
-        <v>5500</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="2">SUM(-400,X3,4500)</f>
-        <v>4500</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="3">SUM(4500,X3,0)</f>
-        <v>4900</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="4">SUM(4500,100,X3)</f>
-        <v>5000</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G18" si="5">SUM(4500,200,X3)</f>
-        <v>5100</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H18" si="6">SUM(4500,-200,X3)</f>
-        <v>4700</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I18" si="7">SUM(4500,-500,X3)</f>
-        <v>4400</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J18" si="8">SUM(4500,-200,X3)</f>
-        <v>4700</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K18" si="9">SUM(4500,200,X3)</f>
-        <v>5100</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L18" si="10">SUM(4500,-500,X3)</f>
-        <v>4400</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M18" si="11">SUM(4500,0,X3)</f>
-        <v>4900</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N18" si="12">SUM(4500,700,X3)</f>
-        <v>5600</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O18" si="13">SUM(4500,0,X3)</f>
-        <v>4900</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P18" si="14">SUM(4500,100,X3)</f>
-        <v>5000</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="15">SUM(4500,-300,X3)</f>
-        <v>4600</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R18" si="16">SUM(4500,200,X3)</f>
-        <v>5100</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S18" si="17">SUM(4500,300,X3)</f>
-        <v>5200</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T18" si="18">SUM(4500,-200,X3)</f>
-        <v>4700</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U18" si="19">SUM(4500,400,X3)</f>
-        <v>5300</v>
-      </c>
       <c r="V3">
-        <f t="shared" ref="V3:V18" si="20">SUM(4500,-300,X3)</f>
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="X3" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
         <v>5100</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
         <v>5200</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
       <c r="E4">
-        <f t="shared" si="3"/>
         <v>4600</v>
       </c>
       <c r="F4">
-        <f t="shared" si="4"/>
         <v>4700</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
         <v>4800</v>
       </c>
       <c r="H4">
-        <f t="shared" si="6"/>
         <v>4400</v>
       </c>
       <c r="I4">
-        <f t="shared" si="7"/>
         <v>4100</v>
       </c>
       <c r="J4">
-        <f t="shared" si="8"/>
         <v>4400</v>
       </c>
       <c r="K4">
-        <f t="shared" si="9"/>
         <v>4800</v>
       </c>
       <c r="L4">
-        <f t="shared" si="10"/>
         <v>4100</v>
       </c>
       <c r="M4">
-        <f t="shared" si="11"/>
         <v>4600</v>
       </c>
       <c r="N4">
-        <f t="shared" si="12"/>
         <v>5300</v>
       </c>
       <c r="O4">
-        <f t="shared" si="13"/>
         <v>4600</v>
       </c>
       <c r="P4">
-        <f t="shared" si="14"/>
         <v>4700</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="15"/>
         <v>4300</v>
       </c>
       <c r="R4">
-        <f t="shared" si="16"/>
         <v>4800</v>
       </c>
       <c r="S4">
-        <f t="shared" si="17"/>
         <v>4900</v>
       </c>
       <c r="T4">
-        <f t="shared" si="18"/>
         <v>4400</v>
       </c>
       <c r="U4">
-        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="V4">
-        <f t="shared" si="20"/>
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="X4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
         <v>4900</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
         <v>4300</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
         <v>4500</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
         <v>4100</v>
       </c>
       <c r="I5">
-        <f t="shared" si="7"/>
         <v>3800</v>
       </c>
       <c r="J5">
-        <f t="shared" si="8"/>
         <v>4100</v>
       </c>
       <c r="K5">
-        <f t="shared" si="9"/>
         <v>4500</v>
       </c>
       <c r="L5">
-        <f t="shared" si="10"/>
         <v>3800</v>
       </c>
       <c r="M5">
-        <f t="shared" si="11"/>
         <v>4300</v>
       </c>
       <c r="N5">
-        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
       <c r="O5">
-        <f t="shared" si="13"/>
         <v>4300</v>
       </c>
       <c r="P5">
-        <f t="shared" si="14"/>
         <v>4400</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="15"/>
         <v>4000</v>
       </c>
       <c r="R5">
-        <f t="shared" si="16"/>
         <v>4500</v>
       </c>
       <c r="S5">
-        <f t="shared" si="17"/>
         <v>4600</v>
       </c>
       <c r="T5">
-        <f t="shared" si="18"/>
         <v>4100</v>
       </c>
       <c r="U5">
-        <f t="shared" si="19"/>
         <v>4700</v>
       </c>
       <c r="V5">
-        <f t="shared" si="20"/>
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="X5" s="2">
         <v>-200</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
         <v>4600</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
         <v>5100</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
         <v>5200</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
         <v>4800</v>
       </c>
       <c r="I6">
-        <f t="shared" si="7"/>
         <v>4500</v>
       </c>
       <c r="J6">
-        <f t="shared" si="8"/>
         <v>4800</v>
       </c>
       <c r="K6">
-        <f t="shared" si="9"/>
         <v>5200</v>
       </c>
       <c r="L6">
-        <f t="shared" si="10"/>
         <v>4500</v>
       </c>
       <c r="M6">
-        <f t="shared" si="11"/>
-        <v>5000</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="12"/>
+        <v>5000</v>
+      </c>
+      <c r="N6" s="4">
         <v>5700</v>
       </c>
       <c r="O6">
-        <f t="shared" si="13"/>
         <v>5000</v>
       </c>
       <c r="P6">
-        <f t="shared" si="14"/>
         <v>5100</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="15"/>
         <v>4700</v>
       </c>
       <c r="R6">
-        <f t="shared" si="16"/>
         <v>5200</v>
       </c>
       <c r="S6">
-        <f t="shared" si="17"/>
         <v>5300</v>
       </c>
       <c r="T6">
-        <f t="shared" si="18"/>
         <v>4800</v>
       </c>
       <c r="U6">
-        <f t="shared" si="19"/>
         <v>5400</v>
       </c>
       <c r="V6">
-        <f t="shared" si="20"/>
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X6" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
         <v>4900</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
         <v>4300</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
         <v>4500</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
         <v>4100</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
         <v>3800</v>
       </c>
       <c r="J7">
-        <f t="shared" si="8"/>
         <v>4100</v>
       </c>
       <c r="K7">
-        <f t="shared" si="9"/>
         <v>4500</v>
       </c>
       <c r="L7">
-        <f t="shared" si="10"/>
         <v>3800</v>
       </c>
       <c r="M7">
-        <f t="shared" si="11"/>
         <v>4300</v>
       </c>
       <c r="N7">
-        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
       <c r="O7">
-        <f t="shared" si="13"/>
         <v>4300</v>
       </c>
       <c r="P7">
-        <f t="shared" si="14"/>
         <v>4400</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="15"/>
         <v>4000</v>
       </c>
       <c r="R7">
-        <f t="shared" si="16"/>
         <v>4500</v>
       </c>
       <c r="S7">
-        <f t="shared" si="17"/>
         <v>4600</v>
       </c>
       <c r="T7">
-        <f t="shared" si="18"/>
         <v>4100</v>
       </c>
       <c r="U7">
-        <f t="shared" si="19"/>
         <v>4700</v>
       </c>
       <c r="V7">
-        <f t="shared" si="20"/>
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="X7" s="2">
         <v>-200</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>5100</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
         <v>5200</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
         <v>4600</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
         <v>4700</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
         <v>4800</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
         <v>4400</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
         <v>4100</v>
       </c>
       <c r="J8">
-        <f t="shared" si="8"/>
         <v>4400</v>
       </c>
       <c r="K8">
-        <f t="shared" si="9"/>
         <v>4800</v>
       </c>
       <c r="L8">
-        <f t="shared" si="10"/>
         <v>4100</v>
       </c>
       <c r="M8">
-        <f t="shared" si="11"/>
         <v>4600</v>
       </c>
       <c r="N8">
-        <f t="shared" si="12"/>
         <v>5300</v>
       </c>
       <c r="O8">
-        <f t="shared" si="13"/>
         <v>4600</v>
       </c>
       <c r="P8">
-        <f t="shared" si="14"/>
         <v>4700</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="15"/>
         <v>4300</v>
       </c>
       <c r="R8">
-        <f t="shared" si="16"/>
         <v>4800</v>
       </c>
       <c r="S8">
-        <f t="shared" si="17"/>
         <v>4900</v>
       </c>
       <c r="T8">
-        <f t="shared" si="18"/>
         <v>4400</v>
       </c>
       <c r="U8">
-        <f t="shared" si="19"/>
         <v>5000</v>
       </c>
       <c r="V8">
-        <f t="shared" si="20"/>
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="X8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <v>5300</v>
+      </c>
+      <c r="C9">
+        <v>5400</v>
+      </c>
+      <c r="D9">
+        <v>4400</v>
+      </c>
+      <c r="E9">
+        <v>4800</v>
+      </c>
+      <c r="F9">
+        <v>4900</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>4600</v>
+      </c>
+      <c r="I9">
+        <v>4300</v>
+      </c>
+      <c r="J9">
+        <v>4600</v>
+      </c>
+      <c r="K9">
+        <v>5000</v>
+      </c>
+      <c r="L9">
+        <v>4300</v>
+      </c>
+      <c r="M9">
+        <v>4800</v>
+      </c>
+      <c r="N9">
+        <v>5500</v>
+      </c>
+      <c r="O9">
+        <v>4800</v>
+      </c>
+      <c r="P9">
+        <v>4900</v>
+      </c>
+      <c r="Q9">
+        <v>4500</v>
+      </c>
+      <c r="R9">
+        <v>5000</v>
+      </c>
+      <c r="S9">
+        <v>5100</v>
+      </c>
+      <c r="T9">
+        <v>4600</v>
+      </c>
+      <c r="U9">
         <v>5200</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>5300</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>4300</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>4700</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>4900</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>4500</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="7"/>
-        <v>4200</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="9"/>
-        <v>4900</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="10"/>
-        <v>4200</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="11"/>
-        <v>4700</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="12"/>
-        <v>5400</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="13"/>
-        <v>4700</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="14"/>
-        <v>4800</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="15"/>
-        <v>4400</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="16"/>
-        <v>4900</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="18"/>
-        <v>4500</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="19"/>
-        <v>5100</v>
-      </c>
       <c r="V9">
-        <f t="shared" si="20"/>
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="X9" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
         <v>5100</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
         <v>4100</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
         <v>4700</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
         <v>4300</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="8"/>
         <v>4300</v>
       </c>
       <c r="K10">
-        <f t="shared" si="9"/>
         <v>4700</v>
       </c>
       <c r="L10">
-        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="M10">
-        <f t="shared" si="11"/>
         <v>4500</v>
       </c>
       <c r="N10">
-        <f t="shared" si="12"/>
         <v>5200</v>
       </c>
       <c r="O10">
-        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="P10">
-        <f t="shared" si="14"/>
         <v>4600</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="15"/>
         <v>4200</v>
       </c>
       <c r="R10">
-        <f t="shared" si="16"/>
         <v>4700</v>
       </c>
       <c r="S10">
-        <f t="shared" si="17"/>
         <v>4800</v>
       </c>
       <c r="T10">
-        <f t="shared" si="18"/>
         <v>4300</v>
       </c>
       <c r="U10">
-        <f t="shared" si="19"/>
         <v>4900</v>
       </c>
       <c r="V10">
-        <f t="shared" si="20"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
         <v>5100</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
         <v>4100</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
         <v>4700</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
         <v>4300</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="J11">
-        <f t="shared" si="8"/>
         <v>4300</v>
       </c>
       <c r="K11">
-        <f t="shared" si="9"/>
         <v>4700</v>
       </c>
       <c r="L11">
-        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="M11">
-        <f t="shared" si="11"/>
         <v>4500</v>
       </c>
       <c r="N11">
-        <f t="shared" si="12"/>
         <v>5200</v>
       </c>
       <c r="O11">
-        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="P11">
-        <f t="shared" si="14"/>
         <v>4600</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="15"/>
         <v>4200</v>
       </c>
       <c r="R11">
-        <f t="shared" si="16"/>
         <v>4700</v>
       </c>
       <c r="S11">
-        <f t="shared" si="17"/>
         <v>4800</v>
       </c>
       <c r="T11">
-        <f t="shared" si="18"/>
         <v>4300</v>
       </c>
       <c r="U11">
-        <f t="shared" si="19"/>
         <v>4900</v>
       </c>
       <c r="V11">
-        <f t="shared" si="20"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="F12">
+        <v>4100</v>
+      </c>
+      <c r="G12">
+        <v>4200</v>
+      </c>
+      <c r="H12">
         <v>3800</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
+      <c r="I12" s="5">
+        <v>3500</v>
+      </c>
+      <c r="J12">
+        <v>3800</v>
+      </c>
+      <c r="K12">
         <v>4200</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>4300</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>4400</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
+      <c r="L12" s="5">
+        <v>3500</v>
+      </c>
+      <c r="M12">
         <v>4000</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="7"/>
+      <c r="N12">
+        <v>4700</v>
+      </c>
+      <c r="O12">
+        <v>4000</v>
+      </c>
+      <c r="P12">
+        <v>4100</v>
+      </c>
+      <c r="Q12">
         <v>3700</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="9"/>
-        <v>4400</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="10"/>
-        <v>3700</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="11"/>
+      <c r="R12">
         <v>4200</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="12"/>
-        <v>4900</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="13"/>
-        <v>4200</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="14"/>
-        <v>4300</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="15"/>
+      <c r="S12">
+        <v>4300</v>
+      </c>
+      <c r="T12">
+        <v>3800</v>
+      </c>
+      <c r="U12">
+        <v>4400</v>
+      </c>
+      <c r="V12">
         <v>3900</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="16"/>
-        <v>4400</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="18"/>
-        <v>4000</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="19"/>
-        <v>4600</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="20"/>
-        <v>3900</v>
-      </c>
       <c r="X12" s="2">
-        <v>-300</v>
+        <v>-500</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
         <v>5200</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
         <v>5300</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
         <v>4300</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
         <v>4700</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
         <v>4900</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
         <v>4500</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
         <v>4200</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
         <v>4500</v>
       </c>
       <c r="K13">
-        <f t="shared" si="9"/>
         <v>4900</v>
       </c>
       <c r="L13">
-        <f t="shared" si="10"/>
         <v>4200</v>
       </c>
       <c r="M13">
-        <f t="shared" si="11"/>
         <v>4700</v>
       </c>
       <c r="N13">
-        <f t="shared" si="12"/>
         <v>5400</v>
       </c>
       <c r="O13">
-        <f t="shared" si="13"/>
         <v>4700</v>
       </c>
       <c r="P13">
-        <f t="shared" si="14"/>
         <v>4800</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="15"/>
         <v>4400</v>
       </c>
       <c r="R13">
-        <f t="shared" si="16"/>
         <v>4900</v>
       </c>
       <c r="S13">
-        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="T13">
-        <f t="shared" si="18"/>
         <v>4500</v>
       </c>
       <c r="U13">
-        <f t="shared" si="19"/>
         <v>5100</v>
       </c>
       <c r="V13">
-        <f t="shared" si="20"/>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="X13" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
         <v>4500</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
         <v>4900</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
         <v>5100</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
         <v>4700</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
         <v>4400</v>
       </c>
       <c r="J14">
-        <f t="shared" si="8"/>
         <v>4700</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
         <v>5100</v>
       </c>
       <c r="L14">
-        <f t="shared" si="10"/>
         <v>4400</v>
       </c>
       <c r="M14">
-        <f t="shared" si="11"/>
         <v>4900</v>
       </c>
       <c r="N14">
-        <f t="shared" si="12"/>
         <v>5600</v>
       </c>
       <c r="O14">
-        <f t="shared" si="13"/>
         <v>4900</v>
       </c>
       <c r="P14">
-        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="15"/>
         <v>4600</v>
       </c>
       <c r="R14">
-        <f t="shared" si="16"/>
         <v>5100</v>
       </c>
       <c r="S14">
-        <f t="shared" si="17"/>
         <v>5200</v>
       </c>
       <c r="T14">
-        <f t="shared" si="18"/>
         <v>4700</v>
       </c>
       <c r="U14">
-        <f t="shared" si="19"/>
         <v>5300</v>
       </c>
       <c r="V14">
-        <f t="shared" si="20"/>
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="X14" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
         <v>5300</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
         <v>4400</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
         <v>4900</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
         <v>4600</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
         <v>4300</v>
       </c>
       <c r="J15">
-        <f t="shared" si="8"/>
         <v>4600</v>
       </c>
       <c r="K15">
-        <f t="shared" si="9"/>
         <v>5000</v>
       </c>
       <c r="L15">
-        <f t="shared" si="10"/>
         <v>4300</v>
       </c>
       <c r="M15">
-        <f t="shared" si="11"/>
         <v>4800</v>
       </c>
       <c r="N15">
-        <f t="shared" si="12"/>
         <v>5500</v>
       </c>
       <c r="O15">
-        <f t="shared" si="13"/>
         <v>4800</v>
       </c>
       <c r="P15">
-        <f t="shared" si="14"/>
         <v>4900</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="15"/>
         <v>4500</v>
       </c>
       <c r="R15">
-        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="S15">
-        <f t="shared" si="17"/>
         <v>5100</v>
       </c>
       <c r="T15">
-        <f t="shared" si="18"/>
         <v>4600</v>
       </c>
       <c r="U15">
-        <f t="shared" si="19"/>
         <v>5200</v>
       </c>
       <c r="V15">
-        <f t="shared" si="20"/>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="X15" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="E16">
+        <v>4200</v>
+      </c>
+      <c r="F16">
+        <v>4300</v>
+      </c>
+      <c r="G16">
+        <v>4400</v>
+      </c>
+      <c r="H16">
+        <v>4000</v>
+      </c>
+      <c r="I16">
+        <v>3700</v>
+      </c>
+      <c r="J16">
+        <v>4000</v>
+      </c>
+      <c r="K16">
+        <v>4400</v>
+      </c>
+      <c r="L16">
+        <v>3700</v>
+      </c>
+      <c r="M16">
+        <v>4200</v>
+      </c>
+      <c r="N16">
+        <v>4900</v>
+      </c>
+      <c r="O16">
+        <v>4200</v>
+      </c>
+      <c r="P16">
+        <v>4300</v>
+      </c>
+      <c r="Q16">
         <v>3900</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>4300</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
-        <v>4400</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>4500</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
+      <c r="R16">
+        <v>4400</v>
+      </c>
+      <c r="S16">
+        <v>4500</v>
+      </c>
+      <c r="T16">
+        <v>4000</v>
+      </c>
+      <c r="U16">
+        <v>4600</v>
+      </c>
+      <c r="V16">
         <v>4100</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="7"/>
-        <v>3800</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="8"/>
-        <v>4100</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="9"/>
-        <v>4500</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="10"/>
-        <v>3800</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="11"/>
-        <v>4300</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="12"/>
-        <v>5000</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="13"/>
-        <v>4300</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="14"/>
-        <v>4400</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="15"/>
-        <v>4000</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="16"/>
-        <v>4500</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="17"/>
-        <v>4600</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="18"/>
-        <v>4100</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="19"/>
-        <v>4700</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="20"/>
-        <v>4000</v>
-      </c>
       <c r="X16" s="2">
-        <v>-200</v>
+        <v>-300</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
         <v>5100</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
         <v>4100</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
         <v>4700</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
         <v>4300</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="J17">
-        <f t="shared" si="8"/>
         <v>4300</v>
       </c>
       <c r="K17">
-        <f t="shared" si="9"/>
         <v>4700</v>
       </c>
       <c r="L17">
-        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="M17">
-        <f t="shared" si="11"/>
         <v>4500</v>
       </c>
       <c r="N17">
-        <f t="shared" si="12"/>
         <v>5200</v>
       </c>
       <c r="O17">
-        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="P17">
-        <f t="shared" si="14"/>
         <v>4600</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="15"/>
         <v>4200</v>
       </c>
       <c r="R17">
-        <f t="shared" si="16"/>
         <v>4700</v>
       </c>
       <c r="S17">
-        <f t="shared" si="17"/>
         <v>4800</v>
       </c>
       <c r="T17">
-        <f t="shared" si="18"/>
         <v>4300</v>
       </c>
       <c r="U17">
-        <f t="shared" si="19"/>
         <v>4900</v>
       </c>
       <c r="V17">
-        <f t="shared" si="20"/>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
         <v>4600</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
         <v>4200</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="7"/>
+      <c r="I18" s="5">
         <v>3500</v>
       </c>
       <c r="J18">
-        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
       <c r="K18">
-        <f t="shared" si="9"/>
         <v>4200</v>
       </c>
-      <c r="L18" s="4">
-        <f t="shared" si="10"/>
+      <c r="L18" s="5">
         <v>3500</v>
       </c>
       <c r="M18">
-        <f t="shared" si="11"/>
         <v>4000</v>
       </c>
       <c r="N18">
-        <f t="shared" si="12"/>
         <v>4700</v>
       </c>
       <c r="O18">
-        <f t="shared" si="13"/>
         <v>4000</v>
       </c>
       <c r="P18">
-        <f t="shared" si="14"/>
         <v>4100</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="15"/>
         <v>3700</v>
       </c>
       <c r="R18">
-        <f t="shared" si="16"/>
         <v>4200</v>
       </c>
       <c r="S18">
-        <f t="shared" si="17"/>
         <v>4300</v>
       </c>
       <c r="T18">
-        <f t="shared" si="18"/>
         <v>3800</v>
       </c>
       <c r="U18">
-        <f t="shared" si="19"/>
         <v>4400</v>
       </c>
       <c r="V18">
-        <f t="shared" si="20"/>
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="X18" s="2">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="W19" s="1">
         <f>SUM(A1,W20,X19)</f>
-        <v>4580.39215686274</v>
-      </c>
-      <c r="X19" s="5">
+        <v>4589.9159663865503</v>
+      </c>
+      <c r="X19">
         <f>AVERAGE(X2:X18)</f>
-        <v>47.0588235294118</v>
+        <v>47.058823529411796</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2856,53 +1891,44 @@
         <v>400</v>
       </c>
       <c r="V20" s="2">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="W20">
         <f>AVERAGE(B20:V20)</f>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="15:15">
-      <c r="O30" s="5"/>
+        <v>42.857142857142897</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>